--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,145 +40,157 @@
     <t>name</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>worth</t>
   </si>
   <si>
     <t>first</t>
@@ -187,58 +199,55 @@
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>much</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>[UNK]</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>’</t>
@@ -602,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -724,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9423076923076923</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,16 +951,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,38 +980,38 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="L9">
-        <v>42</v>
-      </c>
-      <c r="M9">
-        <v>42</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.5263157894736842</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7647058823529411</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.4833333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.3703703703703703</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.2916666666666667</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.675</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.1639344262295082</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.1538461538461539</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.1320582877959927</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L21">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>953</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,16 +1651,16 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.1296296296296296</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5869565217391305</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.1296296296296296</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,37 +1730,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>12</v>
       </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.1267605633802817</v>
+        <v>0.1329690346083789</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,16 +1801,16 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.1052631578947368</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.09411764705882353</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4680851063829787</v>
+        <v>0.55</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.09187279151943463</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>257</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1939,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.07936507936507936</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>290</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.0583941605839416</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2039,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.05120481927710843</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2063,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>630</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2071,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4102564102564102</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2089,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.04814814814814815</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>514</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2121,38 +2130,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3428571428571429</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>12</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>23</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32">
-        <v>0.04220779220779221</v>
-      </c>
-      <c r="L32">
-        <v>26</v>
-      </c>
-      <c r="M32">
-        <v>26</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>590</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2171,49 +2180,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>8</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>16</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.02702702702702703</v>
+        <v>0.03094462540716612</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="O33">
-        <v>0.27</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>288</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2221,13 +2230,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2239,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.02649769585253456</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2263,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2271,49 +2280,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3214285714285715</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.02027027027027027</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
         <v>9</v>
       </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>19</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.02647058823529412</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
-      <c r="M35">
-        <v>10</v>
-      </c>
       <c r="N35">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="O35">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2321,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2051282051282051</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2339,31 +2348,109 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.01920614596670935</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>0.91</v>
+      </c>
+      <c r="O36">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="C39">
         <v>15</v>
       </c>
-      <c r="M36">
+      <c r="D39">
         <v>15</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>766</v>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
